--- a/5-superficie/evaluaciones/CanteroJon20181212 16.28.01.xlsx
+++ b/5-superficie/evaluaciones/CanteroJon20181212 16.28.01.xlsx
@@ -923,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,7 +934,7 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G20" s="33">
         <f t="shared" si="1"/>
-        <v>0.92666666666666675</v>
+        <v>0.8633333333333334</v>
       </c>
       <c r="H20" s="34"/>
       <c r="J20" s="47"/>
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="36"/>
       <c r="J24" s="30"/>
